--- a/archives/Products.xlsx
+++ b/archives/Products.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ryzen 7, 16gb Ram, RTX3070</t>
+          <t>Ryzen 5, 16gb Ram, RTX3070</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$2.912,87</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$2.274,57</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$1.254,57</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$247,20</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$617,42</t>
         </is>
       </c>
     </row>
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$49,90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Notebook Gamer Acer</t>
+          <t>Acer Nitro 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$4.399,99</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$902,64</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$1.430,56</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$799,99</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Intel I9, 16gb Ram, GTX 3090</t>
+          <t>Intel I9, 16gb Ram, RTX 3060</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$8.999,00</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$1.879,29</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$909,42</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$179,90</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$139,99</t>
         </is>
       </c>
     </row>
@@ -718,14 +718,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$46,99</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Notebook AlienWare</t>
+          <t>AlienWare m15 R6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$13.499,99</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$1.784,35</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$949,88</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R$5500</t>
+          <t>R$873,05</t>
         </is>
       </c>
     </row>
